--- a/Excel-XLSX/UN-ROM.xlsx
+++ b/Excel-XLSX/UN-ROM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="1297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1304">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Y8gGzV</t>
+    <t>ZKa2L5</t>
   </si>
   <si>
     <t>1977</t>
@@ -3828,6 +3828,12 @@
     <t>993</t>
   </si>
   <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>KGZ</t>
+  </si>
+  <si>
     <t>995</t>
   </si>
   <si>
@@ -3858,6 +3864,12 @@
     <t>1005</t>
   </si>
   <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
     <t>1006</t>
   </si>
   <si>
@@ -3873,9 +3885,6 @@
     <t>1010</t>
   </si>
   <si>
-    <t>2532</t>
-  </si>
-  <si>
     <t>1011</t>
   </si>
   <si>
@@ -3885,6 +3894,9 @@
     <t>1013</t>
   </si>
   <si>
+    <t>2555</t>
+  </si>
+  <si>
     <t>1014</t>
   </si>
   <si>
@@ -3894,12 +3906,6 @@
     <t>1016</t>
   </si>
   <si>
-    <t>160599</t>
-  </si>
-  <si>
-    <t>1300</t>
-  </si>
-  <si>
     <t>1017</t>
   </si>
   <si>
@@ -3907,6 +3913,21 @@
   </si>
   <si>
     <t>1019</t>
+  </si>
+  <si>
+    <t>177996</t>
+  </si>
+  <si>
+    <t>28000</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>1022</t>
   </si>
 </sst>
 </file>
@@ -4291,7 +4312,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1020"/>
+  <dimension ref="A1:V1023"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -69552,10 +69573,10 @@
         <v>31</v>
       </c>
       <c r="N960" s="2" t="s">
-        <v>242</v>
+        <v>489</v>
       </c>
       <c r="O960" s="2" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="P960" s="2" t="s">
         <v>33</v>
@@ -69620,7 +69641,7 @@
         <v>31</v>
       </c>
       <c r="N961" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O961" s="2" t="s">
         <v>33</v>
@@ -69688,7 +69709,7 @@
         <v>31</v>
       </c>
       <c r="N962" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O962" s="2" t="s">
         <v>41</v>
@@ -69759,7 +69780,7 @@
         <v>107</v>
       </c>
       <c r="O963" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P963" s="2" t="s">
         <v>33</v>
@@ -69824,7 +69845,7 @@
         <v>31</v>
       </c>
       <c r="N964" s="2" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="O964" s="2" t="s">
         <v>33</v>
@@ -69892,7 +69913,7 @@
         <v>31</v>
       </c>
       <c r="N965" s="2" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="O965" s="2" t="s">
         <v>33</v>
@@ -69960,7 +69981,7 @@
         <v>31</v>
       </c>
       <c r="N966" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O966" s="2" t="s">
         <v>33</v>
@@ -70028,10 +70049,10 @@
         <v>31</v>
       </c>
       <c r="N967" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="O967" s="2" t="s">
-        <v>209</v>
+        <v>59</v>
       </c>
       <c r="P967" s="2" t="s">
         <v>33</v>
@@ -70164,7 +70185,7 @@
         <v>31</v>
       </c>
       <c r="N969" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O969" s="2" t="s">
         <v>33</v>
@@ -70300,7 +70321,7 @@
         <v>31</v>
       </c>
       <c r="N971" s="2" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="O971" s="2" t="s">
         <v>33</v>
@@ -70368,10 +70389,10 @@
         <v>31</v>
       </c>
       <c r="N972" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O972" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P972" s="2" t="s">
         <v>33</v>
@@ -70439,7 +70460,7 @@
         <v>41</v>
       </c>
       <c r="O973" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="P973" s="2" t="s">
         <v>33</v>
@@ -70504,7 +70525,7 @@
         <v>31</v>
       </c>
       <c r="N974" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O974" s="2" t="s">
         <v>41</v>
@@ -70643,7 +70664,7 @@
         <v>54</v>
       </c>
       <c r="O976" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="P976" s="2" t="s">
         <v>33</v>
@@ -70684,16 +70705,16 @@
         <v>1235</v>
       </c>
       <c r="F977" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G977" s="1" t="s">
-        <v>440</v>
+        <v>508</v>
       </c>
       <c r="H977" s="1" t="s">
-        <v>441</v>
+        <v>509</v>
       </c>
       <c r="I977" s="1" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="J977" s="2" t="s">
         <v>28</v>
@@ -70708,7 +70729,7 @@
         <v>31</v>
       </c>
       <c r="N977" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="O977" s="2" t="s">
         <v>33</v>
@@ -70752,16 +70773,16 @@
         <v>1235</v>
       </c>
       <c r="F978" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G978" s="1" t="s">
-        <v>302</v>
+        <v>440</v>
       </c>
       <c r="H978" s="1" t="s">
-        <v>303</v>
+        <v>441</v>
       </c>
       <c r="I978" s="1" t="s">
-        <v>303</v>
+        <v>442</v>
       </c>
       <c r="J978" s="2" t="s">
         <v>28</v>
@@ -70776,10 +70797,10 @@
         <v>31</v>
       </c>
       <c r="N978" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="O978" s="2" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="P978" s="2" t="s">
         <v>33</v>
@@ -70820,16 +70841,16 @@
         <v>1235</v>
       </c>
       <c r="F979" s="2" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="G979" s="1" t="s">
-        <v>807</v>
+        <v>302</v>
       </c>
       <c r="H979" s="1" t="s">
-        <v>808</v>
+        <v>303</v>
       </c>
       <c r="I979" s="1" t="s">
-        <v>809</v>
+        <v>303</v>
       </c>
       <c r="J979" s="2" t="s">
         <v>28</v>
@@ -70844,10 +70865,10 @@
         <v>31</v>
       </c>
       <c r="N979" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O979" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="O979" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="P979" s="2" t="s">
         <v>33</v>
@@ -70888,16 +70909,16 @@
         <v>1235</v>
       </c>
       <c r="F980" s="2" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="G980" s="1" t="s">
-        <v>143</v>
+        <v>807</v>
       </c>
       <c r="H980" s="1" t="s">
-        <v>144</v>
+        <v>808</v>
       </c>
       <c r="I980" s="1" t="s">
-        <v>145</v>
+        <v>809</v>
       </c>
       <c r="J980" s="2" t="s">
         <v>28</v>
@@ -70912,10 +70933,10 @@
         <v>31</v>
       </c>
       <c r="N980" s="2" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="O980" s="2" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="P980" s="2" t="s">
         <v>33</v>
@@ -70956,16 +70977,16 @@
         <v>1235</v>
       </c>
       <c r="F981" s="2" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="G981" s="1" t="s">
-        <v>388</v>
+        <v>143</v>
       </c>
       <c r="H981" s="1" t="s">
-        <v>389</v>
+        <v>144</v>
       </c>
       <c r="I981" s="1" t="s">
-        <v>389</v>
+        <v>145</v>
       </c>
       <c r="J981" s="2" t="s">
         <v>28</v>
@@ -70980,10 +71001,10 @@
         <v>31</v>
       </c>
       <c r="N981" s="2" t="s">
-        <v>25</v>
+        <v>411</v>
       </c>
       <c r="O981" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="P981" s="2" t="s">
         <v>33</v>
@@ -71024,16 +71045,16 @@
         <v>1235</v>
       </c>
       <c r="F982" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="G982" s="1" t="s">
-        <v>479</v>
+        <v>1112</v>
       </c>
       <c r="H982" s="1" t="s">
-        <v>480</v>
+        <v>1113</v>
       </c>
       <c r="I982" s="1" t="s">
-        <v>481</v>
+        <v>1113</v>
       </c>
       <c r="J982" s="2" t="s">
         <v>28</v>
@@ -71048,10 +71069,10 @@
         <v>31</v>
       </c>
       <c r="N982" s="2" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="O982" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="P982" s="2" t="s">
         <v>33</v>
@@ -71092,16 +71113,16 @@
         <v>1235</v>
       </c>
       <c r="F983" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="G983" s="1" t="s">
-        <v>1117</v>
+        <v>388</v>
       </c>
       <c r="H983" s="1" t="s">
-        <v>1118</v>
+        <v>389</v>
       </c>
       <c r="I983" s="1" t="s">
-        <v>1118</v>
+        <v>389</v>
       </c>
       <c r="J983" s="2" t="s">
         <v>28</v>
@@ -71116,7 +71137,7 @@
         <v>31</v>
       </c>
       <c r="N983" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="O983" s="2" t="s">
         <v>33</v>
@@ -71160,16 +71181,16 @@
         <v>1235</v>
       </c>
       <c r="F984" s="2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G984" s="1" t="s">
-        <v>337</v>
+        <v>479</v>
       </c>
       <c r="H984" s="1" t="s">
-        <v>338</v>
+        <v>480</v>
       </c>
       <c r="I984" s="1" t="s">
-        <v>339</v>
+        <v>481</v>
       </c>
       <c r="J984" s="2" t="s">
         <v>28</v>
@@ -71184,10 +71205,10 @@
         <v>31</v>
       </c>
       <c r="N984" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="O984" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="P984" s="2" t="s">
         <v>33</v>
@@ -71228,16 +71249,16 @@
         <v>1235</v>
       </c>
       <c r="F985" s="2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="G985" s="1" t="s">
-        <v>85</v>
+        <v>1001</v>
       </c>
       <c r="H985" s="1" t="s">
-        <v>86</v>
+        <v>1002</v>
       </c>
       <c r="I985" s="1" t="s">
-        <v>86</v>
+        <v>1003</v>
       </c>
       <c r="J985" s="2" t="s">
         <v>28</v>
@@ -71252,10 +71273,10 @@
         <v>31</v>
       </c>
       <c r="N985" s="2" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="O985" s="2" t="s">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="P985" s="2" t="s">
         <v>33</v>
@@ -71296,16 +71317,16 @@
         <v>1235</v>
       </c>
       <c r="F986" s="2" t="s">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="G986" s="1" t="s">
-        <v>90</v>
+        <v>1117</v>
       </c>
       <c r="H986" s="1" t="s">
-        <v>91</v>
+        <v>1118</v>
       </c>
       <c r="I986" s="1" t="s">
-        <v>91</v>
+        <v>1118</v>
       </c>
       <c r="J986" s="2" t="s">
         <v>28</v>
@@ -71320,10 +71341,10 @@
         <v>31</v>
       </c>
       <c r="N986" s="2" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="O986" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="P986" s="2" t="s">
         <v>33</v>
@@ -71364,16 +71385,16 @@
         <v>1235</v>
       </c>
       <c r="F987" s="2" t="s">
-        <v>70</v>
+        <v>222</v>
       </c>
       <c r="G987" s="1" t="s">
-        <v>71</v>
+        <v>337</v>
       </c>
       <c r="H987" s="1" t="s">
-        <v>72</v>
+        <v>338</v>
       </c>
       <c r="I987" s="1" t="s">
-        <v>72</v>
+        <v>339</v>
       </c>
       <c r="J987" s="2" t="s">
         <v>28</v>
@@ -71388,10 +71409,10 @@
         <v>31</v>
       </c>
       <c r="N987" s="2" t="s">
-        <v>689</v>
+        <v>33</v>
       </c>
       <c r="O987" s="2" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="P987" s="2" t="s">
         <v>33</v>
@@ -71432,16 +71453,16 @@
         <v>1235</v>
       </c>
       <c r="F988" s="2" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="G988" s="1" t="s">
-        <v>1123</v>
+        <v>85</v>
       </c>
       <c r="H988" s="1" t="s">
-        <v>1124</v>
+        <v>86</v>
       </c>
       <c r="I988" s="1" t="s">
-        <v>1124</v>
+        <v>86</v>
       </c>
       <c r="J988" s="2" t="s">
         <v>28</v>
@@ -71456,10 +71477,10 @@
         <v>31</v>
       </c>
       <c r="N988" s="2" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="O988" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="P988" s="2" t="s">
         <v>33</v>
@@ -71500,34 +71521,34 @@
         <v>1235</v>
       </c>
       <c r="F989" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G989" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H989" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I989" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J989" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K989" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L989" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M989" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N989" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G989" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H989" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="I989" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="J989" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K989" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L989" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M989" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N989" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="O989" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="P989" s="2" t="s">
         <v>33</v>
@@ -71568,16 +71589,16 @@
         <v>1235</v>
       </c>
       <c r="F990" s="2" t="s">
-        <v>232</v>
+        <v>70</v>
       </c>
       <c r="G990" s="1" t="s">
-        <v>1127</v>
+        <v>71</v>
       </c>
       <c r="H990" s="1" t="s">
-        <v>1128</v>
+        <v>72</v>
       </c>
       <c r="I990" s="1" t="s">
-        <v>1128</v>
+        <v>72</v>
       </c>
       <c r="J990" s="2" t="s">
         <v>28</v>
@@ -71592,10 +71613,10 @@
         <v>31</v>
       </c>
       <c r="N990" s="2" t="s">
-        <v>74</v>
+        <v>518</v>
       </c>
       <c r="O990" s="2" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="P990" s="2" t="s">
         <v>33</v>
@@ -71636,16 +71657,16 @@
         <v>1235</v>
       </c>
       <c r="F991" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G991" s="1" t="s">
-        <v>307</v>
+        <v>1123</v>
       </c>
       <c r="H991" s="1" t="s">
-        <v>308</v>
+        <v>1124</v>
       </c>
       <c r="I991" s="1" t="s">
-        <v>308</v>
+        <v>1124</v>
       </c>
       <c r="J991" s="2" t="s">
         <v>28</v>
@@ -71660,7 +71681,7 @@
         <v>31</v>
       </c>
       <c r="N991" s="2" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="O991" s="2" t="s">
         <v>33</v>
@@ -71704,16 +71725,16 @@
         <v>1235</v>
       </c>
       <c r="F992" s="2" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="G992" s="1" t="s">
-        <v>1009</v>
+        <v>395</v>
       </c>
       <c r="H992" s="1" t="s">
-        <v>1010</v>
+        <v>396</v>
       </c>
       <c r="I992" s="1" t="s">
-        <v>1011</v>
+        <v>396</v>
       </c>
       <c r="J992" s="2" t="s">
         <v>28</v>
@@ -71728,7 +71749,7 @@
         <v>31</v>
       </c>
       <c r="N992" s="2" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="O992" s="2" t="s">
         <v>33</v>
@@ -71772,16 +71793,16 @@
         <v>1235</v>
       </c>
       <c r="F993" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G993" s="1" t="s">
-        <v>344</v>
+        <v>1127</v>
       </c>
       <c r="H993" s="1" t="s">
-        <v>345</v>
+        <v>1128</v>
       </c>
       <c r="I993" s="1" t="s">
-        <v>345</v>
+        <v>1128</v>
       </c>
       <c r="J993" s="2" t="s">
         <v>28</v>
@@ -71796,7 +71817,7 @@
         <v>31</v>
       </c>
       <c r="N993" s="2" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O993" s="2" t="s">
         <v>33</v>
@@ -71840,16 +71861,16 @@
         <v>1235</v>
       </c>
       <c r="F994" s="2" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G994" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H994" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="I994" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="J994" s="2" t="s">
         <v>28</v>
@@ -71864,7 +71885,7 @@
         <v>31</v>
       </c>
       <c r="N994" s="2" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="O994" s="2" t="s">
         <v>33</v>
@@ -71908,16 +71929,16 @@
         <v>1235</v>
       </c>
       <c r="F995" s="2" t="s">
-        <v>95</v>
+        <v>239</v>
       </c>
       <c r="G995" s="1" t="s">
-        <v>96</v>
+        <v>1270</v>
       </c>
       <c r="H995" s="1" t="s">
-        <v>97</v>
+        <v>1271</v>
       </c>
       <c r="I995" s="1" t="s">
-        <v>97</v>
+        <v>1271</v>
       </c>
       <c r="J995" s="2" t="s">
         <v>28</v>
@@ -71932,10 +71953,10 @@
         <v>31</v>
       </c>
       <c r="N995" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O995" s="2" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="P995" s="2" t="s">
         <v>33</v>
@@ -71970,22 +71991,22 @@
         <v>22</v>
       </c>
       <c r="D996" s="2" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="E996" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F996" s="2" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="G996" s="1" t="s">
-        <v>348</v>
+        <v>1200</v>
       </c>
       <c r="H996" s="1" t="s">
-        <v>349</v>
+        <v>1201</v>
       </c>
       <c r="I996" s="1" t="s">
-        <v>349</v>
+        <v>1201</v>
       </c>
       <c r="J996" s="2" t="s">
         <v>28</v>
@@ -72000,7 +72021,7 @@
         <v>31</v>
       </c>
       <c r="N996" s="2" t="s">
-        <v>523</v>
+        <v>41</v>
       </c>
       <c r="O996" s="2" t="s">
         <v>33</v>
@@ -72038,22 +72059,22 @@
         <v>22</v>
       </c>
       <c r="D997" s="2" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="E997" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F997" s="2" t="s">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="G997" s="1" t="s">
-        <v>1135</v>
+        <v>313</v>
       </c>
       <c r="H997" s="1" t="s">
-        <v>1136</v>
+        <v>314</v>
       </c>
       <c r="I997" s="1" t="s">
-        <v>1136</v>
+        <v>315</v>
       </c>
       <c r="J997" s="2" t="s">
         <v>28</v>
@@ -72068,7 +72089,7 @@
         <v>31</v>
       </c>
       <c r="N997" s="2" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="O997" s="2" t="s">
         <v>33</v>
@@ -72106,22 +72127,22 @@
         <v>22</v>
       </c>
       <c r="D998" s="2" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="E998" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F998" s="2" t="s">
-        <v>267</v>
+        <v>95</v>
       </c>
       <c r="G998" s="1" t="s">
-        <v>1061</v>
+        <v>96</v>
       </c>
       <c r="H998" s="1" t="s">
-        <v>1062</v>
+        <v>97</v>
       </c>
       <c r="I998" s="1" t="s">
-        <v>1062</v>
+        <v>97</v>
       </c>
       <c r="J998" s="2" t="s">
         <v>28</v>
@@ -72139,7 +72160,7 @@
         <v>41</v>
       </c>
       <c r="O998" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P998" s="2" t="s">
         <v>33</v>
@@ -72174,22 +72195,22 @@
         <v>22</v>
       </c>
       <c r="D999" s="2" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="E999" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F999" s="2" t="s">
-        <v>128</v>
+        <v>263</v>
       </c>
       <c r="G999" s="1" t="s">
-        <v>403</v>
+        <v>348</v>
       </c>
       <c r="H999" s="1" t="s">
-        <v>404</v>
+        <v>349</v>
       </c>
       <c r="I999" s="1" t="s">
-        <v>405</v>
+        <v>349</v>
       </c>
       <c r="J999" s="2" t="s">
         <v>28</v>
@@ -72204,10 +72225,10 @@
         <v>31</v>
       </c>
       <c r="N999" s="2" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="O999" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="P999" s="2" t="s">
         <v>33</v>
@@ -72242,22 +72263,22 @@
         <v>22</v>
       </c>
       <c r="D1000" s="2" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="E1000" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F1000" s="2" t="s">
-        <v>278</v>
+        <v>98</v>
       </c>
       <c r="G1000" s="1" t="s">
-        <v>595</v>
+        <v>1135</v>
       </c>
       <c r="H1000" s="1" t="s">
-        <v>596</v>
+        <v>1136</v>
       </c>
       <c r="I1000" s="1" t="s">
-        <v>597</v>
+        <v>1136</v>
       </c>
       <c r="J1000" s="2" t="s">
         <v>28</v>
@@ -72272,7 +72293,7 @@
         <v>31</v>
       </c>
       <c r="N1000" s="2" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="O1000" s="2" t="s">
         <v>33</v>
@@ -72316,16 +72337,16 @@
         <v>1235</v>
       </c>
       <c r="F1001" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="G1001" s="1" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="H1001" s="1" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="I1001" s="1" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="J1001" s="2" t="s">
         <v>28</v>
@@ -72340,10 +72361,10 @@
         <v>31</v>
       </c>
       <c r="N1001" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="O1001" s="2" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="P1001" s="2" t="s">
         <v>33</v>
@@ -72378,22 +72399,22 @@
         <v>22</v>
       </c>
       <c r="D1002" s="2" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="E1002" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F1002" s="2" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="G1002" s="1" t="s">
-        <v>236</v>
+        <v>403</v>
       </c>
       <c r="H1002" s="1" t="s">
-        <v>237</v>
+        <v>404</v>
       </c>
       <c r="I1002" s="1" t="s">
-        <v>238</v>
+        <v>405</v>
       </c>
       <c r="J1002" s="2" t="s">
         <v>28</v>
@@ -72408,10 +72429,10 @@
         <v>31</v>
       </c>
       <c r="N1002" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="O1002" s="2" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="P1002" s="2" t="s">
         <v>33</v>
@@ -72446,22 +72467,22 @@
         <v>22</v>
       </c>
       <c r="D1003" s="2" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="E1003" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F1003" s="2" t="s">
-        <v>100</v>
+        <v>278</v>
       </c>
       <c r="G1003" s="1" t="s">
-        <v>101</v>
+        <v>595</v>
       </c>
       <c r="H1003" s="1" t="s">
-        <v>102</v>
+        <v>596</v>
       </c>
       <c r="I1003" s="1" t="s">
-        <v>102</v>
+        <v>597</v>
       </c>
       <c r="J1003" s="2" t="s">
         <v>28</v>
@@ -72476,10 +72497,10 @@
         <v>31</v>
       </c>
       <c r="N1003" s="2" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="O1003" s="2" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="P1003" s="2" t="s">
         <v>33</v>
@@ -72514,22 +72535,22 @@
         <v>22</v>
       </c>
       <c r="D1004" s="2" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="E1004" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F1004" s="2" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="G1004" s="1" t="s">
-        <v>318</v>
+        <v>1066</v>
       </c>
       <c r="H1004" s="1" t="s">
-        <v>319</v>
+        <v>1067</v>
       </c>
       <c r="I1004" s="1" t="s">
-        <v>319</v>
+        <v>1068</v>
       </c>
       <c r="J1004" s="2" t="s">
         <v>28</v>
@@ -72544,10 +72565,10 @@
         <v>31</v>
       </c>
       <c r="N1004" s="2" t="s">
-        <v>619</v>
+        <v>33</v>
       </c>
       <c r="O1004" s="2" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="P1004" s="2" t="s">
         <v>33</v>
@@ -72582,22 +72603,22 @@
         <v>22</v>
       </c>
       <c r="D1005" s="2" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="E1005" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F1005" s="2" t="s">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="G1005" s="1" t="s">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="H1005" s="1" t="s">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="I1005" s="1" t="s">
-        <v>132</v>
+        <v>238</v>
       </c>
       <c r="J1005" s="2" t="s">
         <v>28</v>
@@ -72612,10 +72633,10 @@
         <v>31</v>
       </c>
       <c r="N1005" s="2" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="O1005" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="P1005" s="2" t="s">
         <v>33</v>
@@ -72650,22 +72671,22 @@
         <v>22</v>
       </c>
       <c r="D1006" s="2" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="E1006" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F1006" s="2" t="s">
-        <v>152</v>
+        <v>289</v>
       </c>
       <c r="G1006" s="1" t="s">
-        <v>153</v>
+        <v>1282</v>
       </c>
       <c r="H1006" s="1" t="s">
-        <v>154</v>
+        <v>1283</v>
       </c>
       <c r="I1006" s="1" t="s">
-        <v>154</v>
+        <v>1283</v>
       </c>
       <c r="J1006" s="2" t="s">
         <v>28</v>
@@ -72718,22 +72739,22 @@
         <v>22</v>
       </c>
       <c r="D1007" s="2" t="s">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="E1007" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F1007" s="2" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="G1007" s="1" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="H1007" s="1" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="I1007" s="1" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="J1007" s="2" t="s">
         <v>28</v>
@@ -72748,10 +72769,10 @@
         <v>31</v>
       </c>
       <c r="N1007" s="2" t="s">
-        <v>801</v>
+        <v>171</v>
       </c>
       <c r="O1007" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="P1007" s="2" t="s">
         <v>33</v>
@@ -72786,22 +72807,22 @@
         <v>22</v>
       </c>
       <c r="D1008" s="2" t="s">
-        <v>1281</v>
+        <v>1285</v>
       </c>
       <c r="E1008" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F1008" s="2" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="G1008" s="1" t="s">
-        <v>782</v>
+        <v>318</v>
       </c>
       <c r="H1008" s="1" t="s">
-        <v>783</v>
+        <v>319</v>
       </c>
       <c r="I1008" s="1" t="s">
-        <v>784</v>
+        <v>319</v>
       </c>
       <c r="J1008" s="2" t="s">
         <v>28</v>
@@ -72816,10 +72837,10 @@
         <v>31</v>
       </c>
       <c r="N1008" s="2" t="s">
-        <v>33</v>
+        <v>651</v>
       </c>
       <c r="O1008" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P1008" s="2" t="s">
         <v>33</v>
@@ -72854,22 +72875,22 @@
         <v>22</v>
       </c>
       <c r="D1009" s="2" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
       <c r="E1009" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F1009" s="2" t="s">
-        <v>357</v>
+        <v>130</v>
       </c>
       <c r="G1009" s="1" t="s">
-        <v>358</v>
+        <v>131</v>
       </c>
       <c r="H1009" s="1" t="s">
-        <v>359</v>
+        <v>132</v>
       </c>
       <c r="I1009" s="1" t="s">
-        <v>360</v>
+        <v>132</v>
       </c>
       <c r="J1009" s="2" t="s">
         <v>28</v>
@@ -72884,10 +72905,10 @@
         <v>31</v>
       </c>
       <c r="N1009" s="2" t="s">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="O1009" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P1009" s="2" t="s">
         <v>33</v>
@@ -72899,10 +72920,10 @@
         <v>33</v>
       </c>
       <c r="S1009" s="2" t="s">
-        <v>478</v>
+        <v>33</v>
       </c>
       <c r="T1009" s="2" t="s">
-        <v>332</v>
+        <v>33</v>
       </c>
       <c r="U1009" s="1" t="s">
         <v>34</v>
@@ -72922,22 +72943,22 @@
         <v>22</v>
       </c>
       <c r="D1010" s="2" t="s">
-        <v>1283</v>
+        <v>1287</v>
       </c>
       <c r="E1010" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F1010" s="2" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="G1010" s="1" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="H1010" s="1" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="I1010" s="1" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="J1010" s="2" t="s">
         <v>28</v>
@@ -72952,10 +72973,10 @@
         <v>31</v>
       </c>
       <c r="N1010" s="2" t="s">
-        <v>222</v>
+        <v>41</v>
       </c>
       <c r="O1010" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="P1010" s="2" t="s">
         <v>33</v>
@@ -72990,22 +73011,22 @@
         <v>22</v>
       </c>
       <c r="D1011" s="2" t="s">
-        <v>1284</v>
+        <v>1288</v>
       </c>
       <c r="E1011" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F1011" s="2" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="G1011" s="1" t="s">
-        <v>201</v>
+        <v>56</v>
       </c>
       <c r="H1011" s="1" t="s">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c r="I1011" s="1" t="s">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c r="J1011" s="2" t="s">
         <v>28</v>
@@ -73020,10 +73041,10 @@
         <v>31</v>
       </c>
       <c r="N1011" s="2" t="s">
-        <v>1285</v>
+        <v>729</v>
       </c>
       <c r="O1011" s="2" t="s">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="P1011" s="2" t="s">
         <v>33</v>
@@ -73058,22 +73079,22 @@
         <v>22</v>
       </c>
       <c r="D1012" s="2" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="E1012" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F1012" s="2" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="G1012" s="1" t="s">
-        <v>1151</v>
+        <v>358</v>
       </c>
       <c r="H1012" s="1" t="s">
-        <v>1152</v>
+        <v>359</v>
       </c>
       <c r="I1012" s="1" t="s">
-        <v>1152</v>
+        <v>360</v>
       </c>
       <c r="J1012" s="2" t="s">
         <v>28</v>
@@ -73088,10 +73109,10 @@
         <v>31</v>
       </c>
       <c r="N1012" s="2" t="s">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="O1012" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P1012" s="2" t="s">
         <v>33</v>
@@ -73103,10 +73124,10 @@
         <v>33</v>
       </c>
       <c r="S1012" s="2" t="s">
-        <v>33</v>
+        <v>487</v>
       </c>
       <c r="T1012" s="2" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="U1012" s="1" t="s">
         <v>34</v>
@@ -73126,22 +73147,22 @@
         <v>22</v>
       </c>
       <c r="D1013" s="2" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="E1013" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F1013" s="2" t="s">
-        <v>346</v>
+        <v>196</v>
       </c>
       <c r="G1013" s="1" t="s">
-        <v>1154</v>
+        <v>197</v>
       </c>
       <c r="H1013" s="1" t="s">
-        <v>1155</v>
+        <v>198</v>
       </c>
       <c r="I1013" s="1" t="s">
-        <v>1155</v>
+        <v>199</v>
       </c>
       <c r="J1013" s="2" t="s">
         <v>28</v>
@@ -73156,10 +73177,10 @@
         <v>31</v>
       </c>
       <c r="N1013" s="2" t="s">
-        <v>104</v>
+        <v>271</v>
       </c>
       <c r="O1013" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="P1013" s="2" t="s">
         <v>33</v>
@@ -73194,22 +73215,22 @@
         <v>22</v>
       </c>
       <c r="D1014" s="2" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="E1014" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F1014" s="2" t="s">
-        <v>353</v>
+        <v>200</v>
       </c>
       <c r="G1014" s="1" t="s">
-        <v>365</v>
+        <v>201</v>
       </c>
       <c r="H1014" s="1" t="s">
-        <v>366</v>
+        <v>202</v>
       </c>
       <c r="I1014" s="1" t="s">
-        <v>366</v>
+        <v>202</v>
       </c>
       <c r="J1014" s="2" t="s">
         <v>28</v>
@@ -73224,10 +73245,10 @@
         <v>31</v>
       </c>
       <c r="N1014" s="2" t="s">
-        <v>45</v>
+        <v>1292</v>
       </c>
       <c r="O1014" s="2" t="s">
-        <v>33</v>
+        <v>280</v>
       </c>
       <c r="P1014" s="2" t="s">
         <v>33</v>
@@ -73262,22 +73283,22 @@
         <v>22</v>
       </c>
       <c r="D1015" s="2" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
       <c r="E1015" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F1015" s="2" t="s">
-        <v>158</v>
+        <v>343</v>
       </c>
       <c r="G1015" s="1" t="s">
-        <v>159</v>
+        <v>1151</v>
       </c>
       <c r="H1015" s="1" t="s">
-        <v>160</v>
+        <v>1152</v>
       </c>
       <c r="I1015" s="1" t="s">
-        <v>160</v>
+        <v>1152</v>
       </c>
       <c r="J1015" s="2" t="s">
         <v>28</v>
@@ -73292,10 +73313,10 @@
         <v>31</v>
       </c>
       <c r="N1015" s="2" t="s">
-        <v>244</v>
+        <v>43</v>
       </c>
       <c r="O1015" s="2" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="P1015" s="2" t="s">
         <v>33</v>
@@ -73330,22 +73351,22 @@
         <v>22</v>
       </c>
       <c r="D1016" s="2" t="s">
-        <v>1290</v>
+        <v>1294</v>
       </c>
       <c r="E1016" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F1016" s="2" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="G1016" s="1" t="s">
-        <v>972</v>
+        <v>1154</v>
       </c>
       <c r="H1016" s="1" t="s">
-        <v>973</v>
+        <v>1155</v>
       </c>
       <c r="I1016" s="1" t="s">
-        <v>973</v>
+        <v>1155</v>
       </c>
       <c r="J1016" s="2" t="s">
         <v>28</v>
@@ -73360,10 +73381,10 @@
         <v>31</v>
       </c>
       <c r="N1016" s="2" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="O1016" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P1016" s="2" t="s">
         <v>33</v>
@@ -73398,22 +73419,22 @@
         <v>22</v>
       </c>
       <c r="D1017" s="2" t="s">
-        <v>1291</v>
+        <v>1295</v>
       </c>
       <c r="E1017" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F1017" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="G1017" s="1" t="s">
-        <v>464</v>
+        <v>365</v>
       </c>
       <c r="H1017" s="1" t="s">
-        <v>465</v>
+        <v>366</v>
       </c>
       <c r="I1017" s="1" t="s">
-        <v>465</v>
+        <v>366</v>
       </c>
       <c r="J1017" s="2" t="s">
         <v>28</v>
@@ -73428,13 +73449,13 @@
         <v>31</v>
       </c>
       <c r="N1017" s="2" t="s">
-        <v>1292</v>
+        <v>45</v>
       </c>
       <c r="O1017" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="P1017" s="2" t="s">
-        <v>1293</v>
+        <v>33</v>
       </c>
       <c r="Q1017" s="2" t="s">
         <v>33</v>
@@ -73466,22 +73487,22 @@
         <v>22</v>
       </c>
       <c r="D1018" s="2" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="E1018" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F1018" s="2" t="s">
-        <v>367</v>
+        <v>158</v>
       </c>
       <c r="G1018" s="1" t="s">
-        <v>649</v>
+        <v>159</v>
       </c>
       <c r="H1018" s="1" t="s">
-        <v>650</v>
+        <v>160</v>
       </c>
       <c r="I1018" s="1" t="s">
-        <v>650</v>
+        <v>160</v>
       </c>
       <c r="J1018" s="2" t="s">
         <v>28</v>
@@ -73496,10 +73517,10 @@
         <v>31</v>
       </c>
       <c r="N1018" s="2" t="s">
-        <v>157</v>
+        <v>406</v>
       </c>
       <c r="O1018" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="P1018" s="2" t="s">
         <v>33</v>
@@ -73534,22 +73555,22 @@
         <v>22</v>
       </c>
       <c r="D1019" s="2" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="E1019" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F1019" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G1019" s="1" t="s">
-        <v>421</v>
+        <v>972</v>
       </c>
       <c r="H1019" s="1" t="s">
-        <v>422</v>
+        <v>973</v>
       </c>
       <c r="I1019" s="1" t="s">
-        <v>422</v>
+        <v>973</v>
       </c>
       <c r="J1019" s="2" t="s">
         <v>28</v>
@@ -73564,10 +73585,10 @@
         <v>31</v>
       </c>
       <c r="N1019" s="2" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="O1019" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P1019" s="2" t="s">
         <v>33</v>
@@ -73602,60 +73623,264 @@
         <v>22</v>
       </c>
       <c r="D1020" s="2" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="E1020" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F1020" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1020" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H1020" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I1020" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="J1020" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1020" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1020" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1020" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1020" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="O1020" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1020" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="Q1020" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1020" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1020" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1020" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1020" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1020" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1021" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1021" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1021" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E1021" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F1021" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G1021" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="H1021" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="I1021" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="J1021" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1021" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1021" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1021" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1021" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="O1021" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1021" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1021" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1021" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1021" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1021" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1021" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1021" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1022" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1022" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1022" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E1022" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F1022" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G1022" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H1022" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="I1022" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J1022" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1022" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1022" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1022" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1022" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1022" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1022" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1022" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1022" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1022" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1022" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1022" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1022" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1023" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1023" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1023" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E1023" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F1023" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="G1020" s="1" t="s">
+      <c r="G1023" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="H1020" s="1" t="s">
+      <c r="H1023" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="I1020" s="1" t="s">
+      <c r="I1023" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="J1020" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1020" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1020" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1020" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1020" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1020" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1020" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1020" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1020" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1020" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1020" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1020" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1020" s="2" t="s">
+      <c r="J1023" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1023" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1023" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1023" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1023" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1023" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1023" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1023" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1023" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1023" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1023" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1023" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1023" s="2" t="s">
         <v>33</v>
       </c>
     </row>
